--- a/data/faq_data/FAQ.xlsx
+++ b/data/faq_data/FAQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KBQA\data\faq_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB070E-0947-4C16-9E8F-B9E550A1174F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601796DD-8387-4B4E-86F3-0EA667D427E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>怎么使用</t>
   </si>
@@ -278,6 +278,19 @@
   <si>
     <t>{"text":"电磁炉在逆变器打开或外接市电情况下得电，开关方式如下：1、打开电磁炉开关（独立控制面板）。2、根据所需要烹饪种类选择火力大小。",
 "image":"5"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上汽大通怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"上汽大通坚持“科技、信赖、进取”的品牌核心价值，在汽车行业中开创了C2B业务模式，通过与用户在整条价值链上进行实时、在线的透明互联，开展个性化产品定制、智能化制造等，通过业务模式和商业模式创新变革，致力于成为“用户驱动、提供具有全球竞争力的汽车产品和生活服务，为用户创造价值。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -936,6 +949,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/faq_data/FAQ.xlsx
+++ b/data/faq_data/FAQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KBQA\data\faq_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601796DD-8387-4B4E-86F3-0EA667D427E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A9D9B4-92CB-4A23-AAB1-A1BB409B765D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>怎么使用</t>
   </si>
@@ -291,6 +291,84 @@
   </si>
   <si>
     <t>怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果手机连接之后没有网络服务怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"1.使用苹果手机互联，需要选择“使用蜂窝数据”的选项，才能使用网络。针对不同款的苹果手机，此弹框出现的时间不同，部分手机型号需要稍作等待。2.安卓手机互联连接成功后无声音，需要确认蓝牙是否已经连接成功。蓝牙连接成功才会有声音输出。",
+"image":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排主机没有声音怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"检查检查上拉菜单中的“静音”状态是否高亮，点击可取消静音",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视家播放的时候没声音怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"检查检查上拉菜单中的“静音”状态是否高亮，点击可取消静音电视家使用过程中，前排司机如果使用过音乐服务，概率导致电视家静音。可通过切换电视台或者退出后重新进入，可以恢复声音。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机连到后排的USB后没办法投屏怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"手机连接后排USB后默认“进入充电功能”，如果需要使用投屏，重新插拔USB 选择投屏功能。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没办法定制开机欢迎语怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"需要注册“网中网”账号，登录后，在“个人中心”设置“开机欢迎语”。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"整车熄火，开关驾驶员侧车门，等待10秒，检查后排屏幕熄灭后，重新启动车辆，后排屏幕会自动连接。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排的显示屏通信故障怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接之后没有网络服务怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有声音怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放的时候没有声音怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连到后排USB后没有办法投屏怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信故障怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制开机欢迎语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -960,6 +1038,72 @@
         <v>68</v>
       </c>
     </row>
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/faq_data/FAQ.xlsx
+++ b/data/faq_data/FAQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KBQA\data\faq_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A9D9B4-92CB-4A23-AAB1-A1BB409B765D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A8BB20-0399-4068-A26B-CD171A13FA71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,11 +364,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通信故障怎么办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制开机欢迎语</t>
+    <t>没办法定制怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排通信故障怎么办</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
